--- a/InsumosTest.xlsx
+++ b/InsumosTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://everisgroup-my.sharepoint.com/personal/jgutiepi_emeal_nttdata_com/Documents/Escritorio/Proyectos Telefonica/01_ONB_LIBRE_SIMULADOR_FRONT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{CE0CFDB3-A041-40DD-8123-BCBCBF0C2FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35BFBDBB-4010-49B5-82A9-A78730445A13}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{CE0CFDB3-A041-40DD-8123-BCBCBF0C2FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96150E0-E02E-4E39-A772-D4DC0F8D8ECE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09675CD0-BE8E-4DF5-AE9C-C4779C8F50F5}"/>
+    <workbookView xWindow="1716" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{09675CD0-BE8E-4DF5-AE9C-C4779C8F50F5}"/>
   </bookViews>
   <sheets>
     <sheet name="DatosTest" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>https://certfinter.movistarmoney.co/home-offer-simulation?data=basic</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>TEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rango </t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,6 +453,9 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -457,13 +463,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>20.05</v>
+        <v>23.42</v>
+      </c>
+      <c r="E2">
+        <v>11000000</v>
       </c>
       <c r="G2" s="4">
         <f>COUNTIF(A:A,"*")</f>
@@ -476,13 +485,16 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
       <c r="D3">
         <v>23.42</v>
+      </c>
+      <c r="E3">
+        <v>5500000</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -515,8 +527,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{19D00C62-3554-4FBF-8F49-6D4DCE515470}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{D48F424E-6115-4F7A-976A-0B7E64948DB4}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{D48F424E-6115-4F7A-976A-0B7E64948DB4}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{5B30B0D0-1D44-483A-9E83-7231CE534825}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -546,7 +558,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
